--- a/02_programme_task/xlsx_out/47.2 Corinthians.xlsx
+++ b/02_programme_task/xlsx_out/47.2 Corinthians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,2527 +453,3163 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, an apostle of Christ Jesus by the will of God, and Timothy our brother, To the church of God that is at Corinth, with all the saints who are in the whole of Achaia: 2</t>
+          <t>The Second Letter of Paul to the Corinthians Corinthians Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:5</t>
+          <t>2 Corinthians 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For as we share abundantly in Christ's sufferings, so through Christ we share abundantly in comfort too. 6</t>
+          <t>Paul, a an apostle of Christ Jesus b by the will of God, and c Timothy our brother, To the church of God that is at Corinth, d with all the saints who are in the whole of Achaia:</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:7</t>
+          <t>2 Corinthians 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Our hope for you is unshaken, for we know that as you share in our sufferings, you will also share in our comfort. 8</t>
+          <t>e Grace to you and peace from God our Father and the Lord Jesus Christ. God of All Comfort</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:8</t>
+          <t>2 Corinthians 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For we do not want you to be unaware, brothers, of the affliction we experienced in Asia. For we were so utterly burdened beyond our strength that we despaired of life itself. 9</t>
+          <t>f Blessed be the g God and Father of our Lord Jesus Christ, the Father of mercies and h God of all comfort,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:9</t>
+          <t>2 Corinthians 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indeed, we felt that we had received the sentence of death. But that was to make us rely not on ourselves but on God who raises the dead.</t>
+          <t>i who comforts us in all our affliction, so that we may be able to comfort those who are in any affliction, with the comfort with which we ourselves are comforted by God.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:10</t>
+          <t>2 Corinthians 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>He delivered us from such a deadly peril, and he will deliver us. On him we have set our hope that he will deliver us again.</t>
+          <t>For as we share abundantly in j Christ s sufferings, so through Christ we share abundantly in comfort too.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:12</t>
+          <t>2 Corinthians 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For our boast is this, the testimony of our conscience, that we behaved in the world with simplicit y and godly sincerity, not by earthly wisdom but by the grace of God, and supremely so toward you.</t>
+          <t>k If we are afflicted, it is for your comfort and salvation; and if we are comforted, it is for your comfort, which you experience when you patiently endure the same sufferings that we suffer.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:13</t>
+          <t>2 Corinthians 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For we are not writing to you anything other than what you read and understand and I hope you will fully understan d16</t>
+          <t>Our hope for you is unshaken, for we know that as you l share in our sufferings, you will also share in our comfort.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:14</t>
+          <t>2 Corinthians 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>just as you did partially understand u's that on the day of our Lord Jesus you will boast of us as we will boast of you.</t>
+          <t>For we do not want you to be unaware, brothers, of m the affliction we experienced in Asia. For we were so utterly burdened beyond our strength that we despaired of life itself.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:15</t>
+          <t>2 Corinthians 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Because I was sure of this, I wanted to come to you first, so that you might have a second experience of grace.</t>
+          <t>Indeed, we felt that we had received the sentence of death. But that was to make us n rely not on ourselves o but on God p who raises the dead.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:16</t>
+          <t>2 Corinthians 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I wanted to visit you on my way to Macedonia, and to come back to you from Macedonia and have you send me on my way to Judea.</t>
+          <t>q He delivered us from such a deadly peril, and he will deliver us. r On him we have set our hope that he will deliver us again.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:17</t>
+          <t>2 Corinthians 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Was I vacillating when I wanted to do this Do I make my plans according to the flesh, ready to say Yes, yes and No, no at the same time</t>
+          <t>s You also must help us by prayer, so that many will give thanks on our behalf t for the blessing granted us through the prayers of many. Paul s Change of Plans</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:18</t>
+          <t>2 Corinthians 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>As surely as God is faithful, our word to you has not been Yes and No.</t>
+          <t>For our boast is this, u the testimony of our conscience, that we behaved in the world with simplicit y and v godly sincerity, w not by earthly wisdom but by the grace of God, and supremely so toward you.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:19</t>
+          <t>2 Corinthians 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>For the Son of God, Jesus Christ, whom we proclaimed among you, Silvanus and Timothy and I, was not Yes and No, but in him it is always Yes.</t>
+          <t>For we are not writing to you anything other than what you read and understand and I hope you will fully understan d</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:20</t>
+          <t>2 Corinthians 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>For all the promises of God find their Yes in him. That is why it is through him that we utter our Amen to God for his glory.</t>
+          <t>just as you did x partially understand u s that y on the day of our Lord Jesus z you will boast of us as a we will boast of you.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:21</t>
+          <t>2 Corinthians 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>And it is God who establishes us with you in Christ, and has anointed us,</t>
+          <t>Because I was sure of this, b I wanted to come to you first, so that you might have c a second d experience of grace.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:22</t>
+          <t>2 Corinthians 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>and who has also put his seal on us and given us his Spirit in our hearts as a guarantee.</t>
+          <t>I wanted to visit you e on my way to Macedonia, and to come back to you from Macedonia and have you send me on my way to Judea.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:23</t>
+          <t>2 Corinthians 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>But I ll God to witness against m16 e it was to spare you that I refrained from coming again to Corinth.</t>
+          <t>Was I vacillating when I wanted to do this? Do I make my plans f according to the flesh, ready to say Yes, yes and No, no at the same time?</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2 Corinthians 1:24</t>
+          <t>2 Corinthians 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Not that we lord it over your faith, but we work with you for your joy, for you stand firm in your faith. 2</t>
+          <t>As surely as g God is faithful, h our word to you has not been Yes and No.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:1</t>
+          <t>2 Corinthians 1:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>For I made up my mind not to make another painful visit to you. 2</t>
+          <t>For i the Son of God, Jesus Christ, whom we proclaimed among you, j Silvanus and Timothy and I, was not Yes and No, but k in him it is always Yes.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:2</t>
+          <t>2 Corinthians 1:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>For if I cause you pain, who is there to make me glad but the one whom I have pained 3</t>
+          <t>For l all the promises of God find their Yes in him. That is why it is through him that we utter our m Amen to God for his glory.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:3</t>
+          <t>2 Corinthians 1:21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>And I wrote as I did, so that when I came I might not suffer pain from those who should have made me rejoice, for I felt sure of all of you, that my joy would be the joy of you all. 4</t>
+          <t>And it is God who establishes us with you in Christ, and n has anointed us,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:4</t>
+          <t>2 Corinthians 1:22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>For I wrote to you out of much affliction and anguish of heart and with many tears, not to cause you pain but to let you know the abundant love that I have for you. Forgive the Sinner 5</t>
+          <t>and who has also o put his seal on us and p given us his Spirit in our hearts as a guarantee.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:5</t>
+          <t>2 Corinthians 1:23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Now if anyone has caused pain, he has caused it not to me, but in some measur e not to put it too severel16 y to all of you. 6</t>
+          <t>But q I call God to witness against m e it was r to spare you that I refrained from coming again to Corinth.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:6</t>
+          <t>2 Corinthians 1:24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>For such a one, this punishment by the majority is enough, 7</t>
+          <t>Not that we s lord it over your faith, but we work with you for your joy, for you stand firm t in your faith.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:7</t>
+          <t>2 Corinthians 2:1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>so you should rather turn to forgive and comfort him, or he may be overwhelmed by excessive sorrow. 8</t>
+          <t>For I made up my mind u not to make another painful visit to you.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:8</t>
+          <t>2 Corinthians 2:2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>So I beg you to reaffirm your love for him. 9</t>
+          <t>For v if I cause you pain, who is there to make me glad but the one whom I have pained?</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:9</t>
+          <t>2 Corinthians 2:3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>For this is why I wrote, that I might test you and know whether you are obedient in everything.</t>
+          <t>And I wrote as I did, so that when I came I might not suffer pain from those who should have made me rejoice, w for I felt sure of all of you, that my joy would be the joy of you all.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:10</t>
+          <t>2 Corinthians 2:4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Anyone whom you forgive, I lso forgive. Indeed, what I have forgiven, if I have forgiven anything, has been for your sake in the presence of Christ,</t>
+          <t>For x I wrote to you out of much affliction and anguish of heart and with many tears, not to cause you pain but to let you know the abundant love that I have for you. Forgive the Sinner</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:11</t>
+          <t>2 Corinthians 2:5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>so that we would not be outwitted by Satan; for we are not ignorant of his designs. Triumph in Christ</t>
+          <t>Now y if anyone has caused pain, z he has caused it not to me, but a in some measur e not to put it too severel y to all of you.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:12</t>
+          <t>2 Corinthians 2:6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>When I me to Troas to preach the gospel of Christ, even though a door was opened for me in the Lord,</t>
+          <t>For such a one, b this punishment by the majority is enough,</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:13</t>
+          <t>2 Corinthians 2:7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>my spirit was not at rest because I did not find my brother Titus there. So I took leave of them and went on to Macedonia.</t>
+          <t>so c you should rather turn to forgive and comfort him, or he may be overwhelmed by excessive sorrow.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:14</t>
+          <t>2 Corinthians 2:8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>But thanks be to God, who in Christ always leads us in triumphal procession, and through us spreads the fragrance of the knowledge of him everywhere.</t>
+          <t>So I beg you to reaffirm your love for him.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:15</t>
+          <t>2 Corinthians 2:9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>For we are the aroma of Christ to God among those who are being saved and among those who are perishing,</t>
+          <t>For this is why I wrote, that I might d test you and know e whether you are obedient in everything.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2 Corinthians 2:17</t>
+          <t>2 Corinthians 2:10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>For we are not, like so many, peddlers of God's word, but as men of sincerity, as commissioned by God, in the sight of God we speak in Christ. Ministers of the New Covenant 3</t>
+          <t>Anyone whom you forgive, I also forgive. Indeed, what I have forgiven, if I have forgiven anything, has been for your sake in the presence of Christ,</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:3</t>
+          <t>2 Corinthians 2:11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>And you show that you are a letter from Christ delivered by us, written not with ink but with the Spirit of the living God, not on tablets of stone but on tablets of human hearts. 4</t>
+          <t>so that we would not be outwitted by Satan; for f we are not ignorant of his designs. Triumph in Christ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:6</t>
+          <t>2 Corinthians 2:12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>who has made us sufficient to be ministers of a new cov173 enant, not of the letter but of the Spirit. For the letter kills, but the Spirit gives life. 7</t>
+          <t>When g I came to Troas to preach the gospel of Christ, even though h a door was opened for me in the Lord,</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:7</t>
+          <t>2 Corinthians 2:13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Now if the ministry of death, carved in letters on stone, came with such glory that the Israelites could not gaze at Moses face because of its glory, which was being brought to an end, 8</t>
+          <t>my spirit i was not at rest because I did not find my brother Titus there. So I took leave of them and went on to Macedonia.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:8</t>
+          <t>2 Corinthians 2:14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>will not the ministry of the Spirit have even more glory 9</t>
+          <t>But j thanks be to God, who in Christ always k leads us in triumphal procession, and through us spreads l the fragrance of the knowledge of him everywhere.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:9</t>
+          <t>2 Corinthians 2:15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>For if there was glory in the ministry of condemnation, the ministry of righteousness must far exceed it in glory.</t>
+          <t>For we are the aroma of Christ to God among m those who are being saved and among n those who are perishing,</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:10</t>
+          <t>2 Corinthians 2:16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Indeed, in this case, what once had glory has come to have no glory at all, because of the glory that surpasses it.</t>
+          <t>o to one a fragrance from death to death, o to the other a fragrance from life to life. p Who is sufficient for these things?</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:11</t>
+          <t>2 Corinthians 2:17</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>For if what was being brought to an end came with glory, much more will what is permanent have glory.</t>
+          <t>For we are not, like so many, peddlers of God s word, but as men of sincerity, as commissioned by God, in the sight of God we speak in Christ. Ministers of the New Covenant</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:12</t>
+          <t>2 Corinthians 2:18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Since we have such a hope, we are very bold,</t>
+          <t>q Are we beginning to commend ourselves again? Or do we need, r as some do, s letters of recommendation to you, or from you?</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:13</t>
+          <t>2 Corinthians 2:19</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>not like Moses, who would put a veil over his face so that the Israelites might not gaze at the outcome of what was being brought to an end.</t>
+          <t>t You yourselves are our letter of recommendation, written on ou r hearts, to be known and read by all.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:14</t>
+          <t>2 Corinthians 3:3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>But their minds were hardened. For to this day, when they read the old cov173 enant, that same veil remains unlifted, because only through Christ is it taken away.</t>
+          <t>And you show that you are a letter from Christ delivered by us, written not with ink but with the Spirit of u the living God, not on v tablets of stone but on w tablets of x human hearts.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:15</t>
+          <t>2 Corinthians 3:4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yes, to this day whenever Moses is read a veil lies over their hearts.</t>
+          <t>y Such is the confidence that we have through Christ toward God.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:16</t>
+          <t>2 Corinthians 3:5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>But when on16 e turns to the Lord, the veil is removed.</t>
+          <t>z Not that we are sufficient in ourselves to claim anything as coming from us, but a our sufficiency is from God,</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:17</t>
+          <t>2 Corinthians 3:6</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Now the Lor d is the Spirit, and where the Spirit of the Lord is, there is freedom.</t>
+          <t>who has made us sufficient to be b ministers of c a new cov?enant, not of d the letter but of the Spirit. For the letter kills, but e the Spirit gives life.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2 Corinthians 3:18</t>
+          <t>2 Corinthians 3:7</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>And we all, with unveiled face, beholding the glory of the Lord, are being transformed into the same image from one degree of glory to another. For this comes from the Lord who is the Spirit. The Light of the Gospel 4</t>
+          <t>Now if f the ministry of death, carved in letters on stone, came with such glory g that the Israelites could not gaze at Moses face because of its glory, which was being brought to an end,</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:1</t>
+          <t>2 Corinthians 3:8</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Therefore, having this ministry by the mercy of God, we do not lose heart. 2</t>
+          <t>will not the ministry of the Spirit have even more glory?</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:2</t>
+          <t>2 Corinthians 3:9</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>But we have renounced disgraceful, underhanded ways. We refuse to practic16 e cunning or to tamper with God's word, but by the open statement of the truth we would commend ourselves to everyone's conscience in the sight of God. 3</t>
+          <t>For if there was glory in h the ministry of condemnation, i the ministry of righteousness must far exceed it in glory.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:3</t>
+          <t>2 Corinthians 3:10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>And even if our gospel is veiled, it is veiled to those who are perishing. 4</t>
+          <t>Indeed, in this case, what once had glory has come to have no glory at all, because of the glory that surpasses it.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:4</t>
+          <t>2 Corinthians 3:11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>In their case the god of this world has blinded the minds of the unbelievers, to keep them from seeing the light of the gospel of the glory of Christ, who is the image of God. 5</t>
+          <t>For if what was being brought to an end came with glory, much more will what is permanent have glory.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:5</t>
+          <t>2 Corinthians 3:12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>For what we proclaim is not ourselves, but Jesus Christ as Lord, with ourselves as your servant16's for Jesus sake. 6</t>
+          <t>Since we have such a hope, j we are very bold,</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:6</t>
+          <t>2 Corinthians 3:13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>For God, who said, Let light shine out of darkness, has shone in our hearts to give the light of the knowledge of the glory of God in the face of Jesus Christ. Treasure in Jars of Clay 7</t>
+          <t>not like Moses, k who would put a veil over his face so that the Israelites might not gaze at the outcome of what was being brought to an end.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:7</t>
+          <t>2 Corinthians 3:14</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>But we have this treasure in jars of clay, to show that the surpassing power belongs to God and not to us. 8</t>
+          <t>But l their minds were m hardened. For to this day, n when they read o the old cov?enant, that same veil remains unlifted, because only through Christ is it taken away.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:8</t>
+          <t>2 Corinthians 3:15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>We are afflicted in every way, but not crushed; perplexed, but not driven to despair; 9</t>
+          <t>Yes, to this day whenever Moses is read a veil lies over their hearts.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:9</t>
+          <t>2 Corinthians 3:16</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>persecuted, but not forsaken; struck down, but not destroyed;</t>
+          <t>But when p on e turns to the Lord, q the veil is removed.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:11</t>
+          <t>2 Corinthians 3:17</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>For we who live are always being given over to death for Jesus sake, so that the life of Jesus also may be manifested in our mortal flesh.</t>
+          <t>Now the Lor d is the Spirit, and where r the Spirit of the Lord is, there is s freedom.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:12</t>
+          <t>2 Corinthians 3:18</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>So death is at work in us, but life in you.</t>
+          <t>And we all, with unveiled face, t beholding u the glory of the Lord,</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:13</t>
+          <t>2 Corinthians 3:19</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Since we have the same spirit of faith according to what has been written, I lieved, and so I spoke, we also believe, and so we also speak,</t>
+          <t>v are being transformed into the same image w from one degree of glory to another. For this comes from the Lord who is the Spirit. The Light of the Gospel</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:14</t>
+          <t>2 Corinthians 4:1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>knowing that he who raised the Lord Jesus will raise us also with Jesus and bring us with you into his presence.</t>
+          <t>Therefore, having x this ministry y by the mercy of God, we do not lose heart.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:15</t>
+          <t>2 Corinthians 4:2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>For it is all for your sake, so that as grace extends to more and more people it may increase thanksgiving, to the glory of God.</t>
+          <t>But we have renounced z disgraceful, underhanded ways. We refuse to practic e cunning or a to tamper with God s word, but b by the open statement of the truth c we would commend ourselves to everyone s conscience in the sight of God.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:16</t>
+          <t>2 Corinthians 4:3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>So we do not lose heart. Though our outer sel16 f is wasting away, our inner self is being renewed day by day.</t>
+          <t>And even d if our gospel is veiled, e it is veiled to f those who are perishing.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2 Corinthians 4:17</t>
+          <t>2 Corinthians 4:4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>For this light momentary affliction is preparing for us an eternal weight of glory beyond all comparison,</t>
+          <t>In their case g the god of this world d has blinded the minds of the unbelievers, to keep them from seeing h the light of i the gospel of the glory of Christ, j who is the image of God.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:1</t>
+          <t>2 Corinthians 4:5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>For we know that if the tent that is our earthly home is destroyed, we have a building from God, a house not made with hands, eternal in the heavens. 2</t>
+          <t>For what k we proclaim is not ourselves, but Jesus Christ as Lord, with l ourselves as your servant s for Jesus sake.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:2</t>
+          <t>2 Corinthians 4:6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>For in this tent we groan, longing to put on our heavenly dwelling, 3</t>
+          <t>For God, who said, m Let light shine out of darkness, n has shone in our hearts to give o the light of the knowledge of the glory of God in the face of Jesus Christ. Treasure in Jars of Clay</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:3</t>
+          <t>2 Corinthians 4:7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>if indeed by putting it o16 n we may not be found naked. 4</t>
+          <t>But we have this treasure in p jars of clay, q to show that the surpassing power belongs to God and not to us.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:4</t>
+          <t>2 Corinthians 4:8</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>For while we are still in this tent, we groan, being burdene16 d not that we would be unclothed, but that we would be further clothed, so that what is mortal may be swallowed up by life. 5</t>
+          <t>We are r afflicted in every way, but not crushed; perplexed, but not driven to despair;</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:5</t>
+          <t>2 Corinthians 4:9</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>He who has prepared us for this very thing is God, who has given us the Spirit as a guarantee. 6</t>
+          <t>persecuted, but s not forsaken; t struck down, but not destroyed;</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:6</t>
+          <t>2 Corinthians 4:10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>So we are always of good courage. We know that while we are at home in the body we are away from the Lord, 7</t>
+          <t>u always carrying in the body the death of Jesus, v so that the life of Jesus also may be manifested in our bodies.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:7</t>
+          <t>2 Corinthians 4:11</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>for we walk by faith, not by sight. 8</t>
+          <t>For we who live are always being given over to death for Jesus sake, so that the life of Jesus also may be manifested in our mortal flesh.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:8</t>
+          <t>2 Corinthians 4:12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Yes, we are of good courage, and we would rather be away from the body and at home with the Lord. 9</t>
+          <t>So w death is at work in us, but life in you.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:9</t>
+          <t>2 Corinthians 4:13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>So whether we are at home or away, we make it our aim to please him.</t>
+          <t>Since we have x the same spirit of faith according to what has been written, y I believed, and so I spoke, we also believe, and so we also speak,</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:10</t>
+          <t>2 Corinthians 4:14</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>For we must all appear before the judgment seat of Christ, so that each one may receive what is due for what he has done in the body, whether good or evil. The Ministry of Reconciliation</t>
+          <t>knowing that z he who raised the Lord Jesus a will raise us also with Jesus and b bring us with you into his presence.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:11</t>
+          <t>2 Corinthians 4:15</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Therefore, knowing the fear of the Lord, we persuade others. But what we are is known to God, and I hope it is known also to your conscience.</t>
+          <t>For c it is all for your sake, so that as d grace extends to more and more people it may increase thanksgiving, e to the glory of God.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:13</t>
+          <t>2 Corinthians 4:16</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>For if we are beside ourselves, it is for God; if we are in our right mind, it is for you.</t>
+          <t>So we do not lose heart. f Though our outer sel f is wasting away, g our inner self h is being renewed day by day.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:14</t>
+          <t>2 Corinthians 4:17</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>For the love of Christ controls us, because we have concluded this: that one has died for all, therefore all have died;</t>
+          <t>For i this light momentary affliction is preparing for us an eternal weight of glory beyond all comparison,</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:15</t>
+          <t>2 Corinthians 4:18</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>and he died for all, that those who live might no long173 er live for themselves but for him who for their sake died and was raised.</t>
+          <t>j as we look not to the things that are seen but to the things that are unseen. For the things that are seen are transient, but the things that are unseen are eternal. Our Heavenly Dwelling</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:16</t>
+          <t>2 Corinthians 5:1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>From now on, therefore, we regard no one according to the flesh. Even though we once regarded Christ according to the flesh, we regard him thus no long173 er.</t>
+          <t>For we know that if k the tent that is l our earthly home is destroyed, we have a building from God, m a house not made with hands, eternal in the heavens.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:17</t>
+          <t>2 Corinthians 5:2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Therefore, if anyone is in Christ, he is a new creation. The old has passed away; behold, the new has come.</t>
+          <t>For in this tent n we groan, longing to o put on our heavenly dwelling,</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:18</t>
+          <t>2 Corinthians 5:3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>All this is from God, who through Christ reconciled us to himself and gave us the ministry of reconciliation;</t>
+          <t>if indeed by putting it o n we may not be found naked.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:19</t>
+          <t>2 Corinthians 5:4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>that is, in Christ God was reconcilin16 g the world to himself, not counting their trespasses against them, and entrusting to us the message of reconciliation.</t>
+          <t>For while we are still in this tent, we groan, being burdene d not that we would be unclothed, but that we would be further clothed, so that what is mortal p may be swallowed up by life.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2 Corinthians 5:20</t>
+          <t>2 Corinthians 5:5</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Therefore, we are ambassadors for Christ, God making his appeal through us. We implore you on behalf of Christ, be reconciled to God.</t>
+          <t>He who has prepared us for this very thing is God, q who has given us the Spirit as a guarantee.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:2</t>
+          <t>2 Corinthians 5:6</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>For he says, - In a favorable time I listened to you, - and in a day of salvation I have helped you. Behold, now is the favorable time; behold, now is the day of salvation. 3</t>
+          <t>So we are always of good courage. We know that r while we are at home in the body we are away from the Lord,</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:3</t>
+          <t>2 Corinthians 5:7</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>We put no obstacle in anyone's way, so that no fault may be found with our ministry, 4</t>
+          <t>for s we walk by faith, not t by sight.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:4</t>
+          <t>2 Corinthians 5:8</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>but as servants of God we commend ourselves in every way: by great endurance, in afflictions, hardships, calamities, 5</t>
+          <t>Yes, we are of good courage, and we u would rather be away from the body and at home with the Lord.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:7</t>
+          <t>2 Corinthians 5:9</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>by truthful speech, and the power of God; with the weapons of righteousness for the right hand and for the left; 8</t>
+          <t>So whether we are at home or away, we make it our aim to v please him.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:8</t>
+          <t>2 Corinthians 5:10</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>through honor and dishonor, through slander and praise. We are treated as impostors, and yet are true; 9</t>
+          <t>For w we must all appear before the judgment seat of Christ, x so that each one may receive what is due for what he has done in the body, whether good or evil. The Ministry of Reconciliation</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:9</t>
+          <t>2 Corinthians 5:11</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>as unknown, and yet well known; as dying, and behold, we live; as punished, and yet not killed;</t>
+          <t>Therefore, knowing y the fear of the Lord, we persuade others. But z what we are is known to God, and I hope it is known also to your conscience.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:11</t>
+          <t>2 Corinthians 5:12</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>We have spoken freely to you, Corinthians; our heart is wide open.</t>
+          <t>a We are not commending ourselves to you again but b giving you cause to boast about us, so that you may be able to answer those who boast about outward appearance and not about what is in the heart.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:12</t>
+          <t>2 Corinthians 5:13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>You are not restricted by us, but you are restricted in your own affections.</t>
+          <t>For if we c are beside ourselves, it is for God; if we are in our right mind, it is for you.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:16</t>
+          <t>2 Corinthians 5:14</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>What agreement has the temple of God with idols For we are the temple of the living God; as God said, - I will make my dwelling among them and walk among them, - and I will be their God, and they shall be my people. -</t>
+          <t>For the love of Christ d controls us, because we have concluded this: that e one has died for all, therefore all have died;</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:17</t>
+          <t>2 Corinthians 5:15</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Therefore go out from their midst, - and be separate from them, says the Lord, - and touch no unclean thing; - then I will welcome you, -</t>
+          <t>and he died for all, f that those who live might no long?er live for themselves but g for him who for their sake died and was raised.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2 Corinthians 6:18</t>
+          <t>2 Corinthians 5:16</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>and I will be a father to you, - and you shall be sons and daughters to me, - says the Lord Almighty. 7</t>
+          <t>From now on, therefore, h we regard no one according to the flesh. Even though we once regarded Christ according to the flesh, we regard him thus no long?er.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:1</t>
+          <t>2 Corinthians 5:17</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Since we have these promises, beloved, let us cleanse ourselves from every defilement of bod16 y and spirit, bringing holiness to completion in the fear of God. Paul's Joy 2</t>
+          <t>Therefore, if anyone is i in Christ, he is j a new creation.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:3</t>
+          <t>2 Corinthians 5:18</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>I o not say this to condemn you, for I said before that you are in our hearts, to die together and to live together. 4</t>
+          <t>k The old has passed away; behold, the new has come.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:4</t>
+          <t>2 Corinthians 5:18</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>I m acting with great boldness toward you; I have great pride in you; I m filled with comfort. In all our affliction, I m overflowing with joy. 5</t>
+          <t>All this is from God, l who through Christ reconciled us to himself and gave us m the ministry of reconciliation;</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:5</t>
+          <t>2 Corinthians 5:19</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>For even when we came into Macedonia, our bodies had no rest, but we were afflicted at every tur16 n fighting without and fear within. 6</t>
+          <t>that is, in Christ God was reconcilin g the world to himself, n not counting their trespasses against them, and entrusting to us m the message of reconciliation.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:6</t>
+          <t>2 Corinthians 5:20</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>But God, who comforts the downcast, comforted us by the coming of Titus, 7</t>
+          <t>Therefore, o we are ambassadors for Christ, p God making his appeal through us. We implore you on behalf of Christ, be reconciled to God.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:7</t>
+          <t>2 Corinthians 5:21</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>and not only by his coming but also by the comfort with which he was comforted by you, as he told us of your longing, your mourning, your zeal for me, so that I rejoiced still more. 8</t>
+          <t>q For our sake he made him to be sin r who knew no sin, so that in him we might become s the righteousness of God.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:8</t>
+          <t>2 Corinthians 5:22</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>For even if I made you grieve with my letter, I o not regret i16 t though I id regret it, for I see that that letter grieved you, though only for a while. 9</t>
+          <t>t Working together with him, then, u we appeal to you v not to receive the grace of God in vain.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:9</t>
+          <t>2 Corinthians 6:2</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>As it is, I rejoice, not because you were grieved, but because you were grieved into repenting. For you felt a godly grief, so that you suffered no loss through us.</t>
+          <t>For he says, w In a favorable time I listened to you, and in a day of salvation I have helped you. Behold, x now is the y favorable time; behold, now is the day of salvation.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:10</t>
+          <t>2 Corinthians 6:3</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>For godly grief produces a repentance that leads to salvation without regret, whereas worldly grief produces death.</t>
+          <t>We z put no obstacle in anyone s way, so that no fault may be found with our ministry,</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:11</t>
+          <t>2 Corinthians 6:4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>For see what earnestness this godly grief has produced in you, but also what eagerness to clear yourselves, what indignation, what fear, what longing, what zeal, what punishment! At every point you have proved yourselves innocent in the matter.</t>
+          <t>but a as servants of God we commend ourselves in every way: b by great endurance, c in afflictions, d hardships, calamities,</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:12</t>
+          <t>2 Corinthians 6:5</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>So although I wrote to you, it was not for the sake of the one who did the wrong, nor for the sake of the one who suffered the wrong, but in order that your earnestness for us might be revealed to you in the sight of God.</t>
+          <t>e beatings, imprisonments, f riots, labors, sleepless nights, hunger;</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:13</t>
+          <t>2 Corinthians 6:6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Therefore we are comforted. And besides our own comfort, we rejoiced still more at the joy of Titus, because his spirit has been refreshed by you all.</t>
+          <t>g by purity, h knowledge, patience, kindness, i the Holy Spirit, j genuine love;</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:14</t>
+          <t>2 Corinthians 6:7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>For whatever boasts I made to him about you, I was not put to shame. But just as everything we said to you was true, so also our boasting before Titus has proved true.</t>
+          <t>by k truthful speech, and l the power of God; with m the weapons of righteousness for the right hand and for the left;</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:15</t>
+          <t>2 Corinthians 6:8</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>And his affection for you is even greater, as he remembers the obedience of you all, how you received him with fear and trembling.</t>
+          <t>through honor and dishonor, n through slander and praise. We are treated as impostors, and yet are true;</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2 Corinthians 7:16</t>
+          <t>2 Corinthians 6:9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>I rejoice, because I have complete confidence in you. Encouragement to Give Generously 8</t>
+          <t>as unknown, and o yet well known; p as dying, and behold, we live; q as punished, and yet not killed;</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:1</t>
+          <t>2 Corinthians 6:10</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>We want you to know, brothers, about the grace of God that has been given among the churches of Macedonia, 2</t>
+          <t>r as sorrowful, yet always rejoicing; s as poor, yet making many rich; t as having nothing, u yet possessing everything.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:2</t>
+          <t>2 Corinthians 6:11</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>for in a severe test of affliction, their abundance of joy and their extreme poverty have overflowed in a wealth of generosity on their part. 3</t>
+          <t>We have spoken freely to you, Corinthians; v our heart is wide open.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:3</t>
+          <t>2 Corinthians 6:12</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>For they gave according to their means, as I can testify, and beyond their means, of their own accord, 4</t>
+          <t>You are not restricted by us, but w you are restricted in your own affections.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:4</t>
+          <t>2 Corinthians 6:13</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>begging us earnestly for the favo16 r of taking part in the relief of the saint s16 5</t>
+          <t>x In return widen your hearts also. The Temple of the Living God</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:5</t>
+          <t>2 Corinthians 6:14</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>and this, not as we expected, but they gave themselves first to the Lord and then by the will of God to us. 6</t>
+          <t>z Do not be unequally yoked with unbelievers. For a what partnership has righteousness with lawlessness? Or b what fellowship has light with darkness?</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:6</t>
+          <t>2 Corinthians 6:15</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Accordingly, we urged Titus that as he had started, so he should complete among you this act of grace. 7</t>
+          <t>c What accord has Christ with Belial? Or what portion does a believer share with an unbeliever?</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:7</t>
+          <t>2 Corinthians 6:16</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>But as you excel in everythin16 g in faith, in speech, in knowledge, in all earnestness, and in our love for yo u see that you excel in this act of grace also. 8</t>
+          <t>What agreement has the temple of God with idols? For d we are the temple of the living God; as God said, e I will make my dwelling among them and f walk among them, and g I will be their God, and they shall be my people.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:9</t>
+          <t>2 Corinthians 6:17</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>For you know the grace of our Lord Jesus Christ, that though he was rich, yet for your sake he became poor, so that you by his poverty might become rich.</t>
+          <t>Therefore h go out from their midst, and be separate from them, says the Lord, and touch no unclean thing; then I will welcome you,</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:10</t>
+          <t>2 Corinthians 6:18</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>And in this matter I give my judgment: this benefits you, who a year ago started not only to do this work but also to desire to do it.</t>
+          <t>i and I will be a father to you, and you shall be sons and daughters to me, says the Lord Almighty.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:11</t>
+          <t>2 Corinthians 7:1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>So now finish doing it as well, so that your readiness in desiring it may be matched by your completing it out of what you have.</t>
+          <t>Since we have these promises, beloved, j let us cleanse ourselves from every defilement of bod y and spirit, bringing holiness to completion in the fear of God. Paul s Joy</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:12</t>
+          <t>2 Corinthians 7:2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>For if the readiness is there, it is acceptable according to what a person has, not according to what he does not have.</t>
+          <t>k Make room in your heart s for us. l We have wronged no one, we have corrupted no one, we have taken advantage of no one.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:13</t>
+          <t>2 Corinthians 7:3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>For I do not mean that others should be eased and you burdened, but that as a matter of fairness</t>
+          <t>I do not say this to condemn you, for I said before that m you are in our hearts, to die together and to live together.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:14</t>
+          <t>2 Corinthians 7:4</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>your abundance at the pres173 ent time should supply their need, so that their abundance may supply your need, that there may be fairness.</t>
+          <t>I am acting with n great boldness toward you; o I have great pride in you; p I am filled with comfort. In all our affliction, I am overflowing with joy.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:15</t>
+          <t>2 Corinthians 7:5</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>As it is written, Whoever gathered much had nothing left over, and whoever gathered little had no lack. Commendation of Titus</t>
+          <t>For even q when we came into Macedonia, our bodies had no rest, but we were afflicted at every turn r fighting without and fear within.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:16</t>
+          <t>2 Corinthians 7:6</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>But thanks be to God, who put into the heart of Titus the same earnest care I have for you.</t>
+          <t>But s God, who comforts the downcast, t comforted us by the coming of Titus,</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:17</t>
+          <t>2 Corinthians 7:7</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>For he not only accepted our appeal, but being himself very earnest he is goin16 g to you of his own accord.</t>
+          <t>and not only by his coming but also by the comfort with which he was comforted by you, as he told us of your longing, your mourning, your zeal for me, so that I rejoiced still more.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:18</t>
+          <t>2 Corinthians 7:8</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>With him we are sendin16 g the brother who is famous among all the churches for his preaching of the gospel.</t>
+          <t>For u even if I made you grieve with my letter, I do not regret i t though v I did regret it, for I see that that letter grieved you, though only for a while.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:19</t>
+          <t>2 Corinthians 7:9</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>And not only that, but he has been appointed by the churches to travel with us as we carry out this act of grace that is being ministered by us, for the glory of the Lord himself and to show our good will.</t>
+          <t>As it is, I rejoice, not because you were grieved, but w because you were grieved into repenting. For you felt a godly grief, so that you suffered no loss through us.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:20</t>
+          <t>2 Corinthians 7:10</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>We take this course so that no one should blame us about this generous gift that is being administered by us,</t>
+          <t>For x godly grief produces a repentance that leads to salvation without regret, whereas y worldly grief produces death.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:21</t>
+          <t>2 Corinthians 7:11</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>for we aim at what is honorable not only in the Lord's sight but also in the sight of man.</t>
+          <t>For see what earnestness this godly grief has produced in you, but also what eagerness to clear yourselves, what indignation, what fear, what longing, z what zeal, what punishment! At every point you have proved yourselves innocent in the matter.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:22</t>
+          <t>2 Corinthians 7:12</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>And with them we are sending our brother whom we have often tested and found earnest in many matters, but who is now more earnest than ever because of his great confidence in you.</t>
+          <t>So although I wrote to you, it was not for the sake of the one a who did the wrong, nor for the sake of the one who suffered the wrong, but in order that your earnestness for us might be revealed to you in the sight of God.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:23</t>
+          <t>2 Corinthians 7:13</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>As for Titus, he is my partner and fellow worker for your benefit. And as for our brothers, they are messenger's of the churches, the glory of Christ.</t>
+          <t>Therefore b we are comforted. And besides our own comfort, we rejoiced still more at the joy of Titus, because his spirit c has been refreshed by you all.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2 Corinthians 8:24</t>
+          <t>2 Corinthians 7:14</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>So give proof before the churches of your love and of our boasting about you to these men. The Collection for Christians in Jerusalem 9</t>
+          <t>For d whatever boasts I made to him about you, I was not put to shame. But just as everything we said to you e was true, so also our boasting before Titus has proved true.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:1</t>
+          <t>2 Corinthians 7:15</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Now it is superfluous for me to write to you about the ministry for the saints, 2</t>
+          <t>And his affection for you is even greater, as he remembers f the obedience of you all, how you received him with fear and trembling.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:2</t>
+          <t>2 Corinthians 7:16</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>for I know your readiness, of which I boast about you to the people of Macedonia, saying that Achaia has been ready since last year. And your zeal has stirred up most of them. 3</t>
+          <t>I rejoice, because I have complete g confidence in you. Encouragement to Give Generously</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:3</t>
+          <t>2 Corinthians 8:1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>But I m sendin16 g the brothers so that our boasting about you may not prove empty in this matter, so that you may be ready, as I said you would be. 4</t>
+          <t>We want you to know, brothers, about the grace of God that has been h given among the churches of Macedonia,</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:4</t>
+          <t>2 Corinthians 8:2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Otherwise, if some Macedonians come with me and find that you are not ready, we would be humiliate16 d to say nothing of yo16 u for being so confident. 5</t>
+          <t>for in a severe test of affliction, their abundance of joy and i their extreme poverty have overflowed in a wealth of generosity on their part.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:5</t>
+          <t>2 Corinthians 8:3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>So I thought it necessary to urge the brothers to go on ahead to you and arrange in advance for the gif16 t you have promised, so that it may be ready as a willing gift, not as an exaction. The Cheerful Giver 6</t>
+          <t>For they gave j according to their means, as I can testify, and beyond their means, of their own accord,</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:6</t>
+          <t>2 Corinthians 8:4</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>The point is this: whoever sows sparingly will also reap sparingly, and whoever sows bountifull y will also reap bountifully. 7</t>
+          <t>begging us earnestly k for the favo r of taking part in l the relief of the saint s</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:7</t>
+          <t>2 Corinthians 8:5</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Each one must give as he has decided in his heart, not reluctantly or under compulsion, for God loves a cheerful giver. 8</t>
+          <t>and this, not as we expected, but they m gave themselves first to the Lord and then by the will of God to us.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:8</t>
+          <t>2 Corinthians 8:6</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>And God is able to make all grace abound to you, so that having all sufficienc y in all things at all times, you may abound in every good work. 9</t>
+          <t>Accordingly, n we urged Titus that as he had started, so he should complete among you o this act of grace.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:9</t>
+          <t>2 Corinthians 8:7</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>As it is written, - He has distributed freely, he has given to the poor; - his righteousness endures forever.</t>
+          <t>But as p you excel in everythin g in faith, in speech, in knowledge, in all earnestness, and in our love for yo u</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:10</t>
+          <t>2 Corinthians 8:8</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>He who supplies seed to the sower and bread for food will supply and multiply your seed for sowing and increase the harvest of your righteousness.</t>
+          <t>q see that you excel in this act of grace also.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:12</t>
+          <t>2 Corinthians 8:9</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>For the ministry of this service is not only supplying the needs of the saints but is also overflowing in many thanksgivings to God.</t>
+          <t>r I say this not as a command, but to prove by the earnestness of others that your love also is genuine.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:13</t>
+          <t>2 Corinthians 8:9</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>By their approval of this service, the16 y will glorify God because of your submission that comes from your confession of the gospel of Christ, and the generosity of your contribution for them and for all others,</t>
+          <t>For you know the grace of our Lord Jesus Christ, that s though he was rich, yet for your sake he became poor, so that you by his poverty might become rich.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2 Corinthians 9:14</t>
+          <t>2 Corinthians 8:10</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>while they long for you and pray for you, because of the surpassing grace of God upon you.</t>
+          <t>And in this matter t I give my judgment: u this benefits you, who v a year ago started not only to do this work but also to desire to do it.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:2</t>
+          <t>2 Corinthians 8:11</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>I g of you that when I am pres173 ent I may not have to show boldness with such confidence as I count on showing against some who suspect us of walking according to the flesh. 3</t>
+          <t>So now finish doing it as well, so that your readiness in desiring it may be matched by your completing it out of what you have.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:3</t>
+          <t>2 Corinthians 8:12</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>For though we walk in the flesh, we are not waging war according to the flesh. 4</t>
+          <t>For if the readiness is there, it is acceptable w according to what a person has, not according to what he does not have.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:4</t>
+          <t>2 Corinthians 8:13</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>For the weapons of our warfare are not of the flesh but have divine power to destroy strongholds. 5</t>
+          <t>For I do not mean that others should be eased and you burdened, but that as a matter of fairness</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:5</t>
+          <t>2 Corinthians 8:14</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>We destroy arguments and every lofty opinion raised against the knowledge of God, and take every thought captive to obey Christ, 6</t>
+          <t>your abundance at the pres?ent time should supply x their need, so that their abundance may supply your need, that there may be fairness.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:8</t>
+          <t>2 Corinthians 8:15</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>For even if I boast a little too much of our authority, which the Lord gave for building you up and not for destroying you, I will not be ashamed. 9</t>
+          <t>As it is written, y Whoever gathered much had nothing left over, and whoever gathered little had no lack. Commendation of Titus</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:9</t>
+          <t>2 Corinthians 8:16</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>I o not want to appear to be frightening you with my letters.</t>
+          <t>But z thanks be to God, a who put into the heart of Titus the same earnest care I have for you.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:10</t>
+          <t>2 Corinthians 8:17</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>For they say, His letters are weighty and strong, but his bodily presence is weak, and his speech of no account.</t>
+          <t>For b he not only accepted our appeal, but being himself very earnest he is goin g to you of his own accord.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:11</t>
+          <t>2 Corinthians 8:18</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Let such a person understand that what we say by letter when absent, we do when pres173 ent.</t>
+          <t>With him we are sendin g</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:12</t>
+          <t>2 Corinthians 8:19</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Not that we dare to classify or compare ourselves with some of those who are commending themselves. But when they measure themselves by one another and compare themselves with one another, they are without understanding.</t>
+          <t>c the brother who is famous among d all the churches for his preaching of the gospel.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:13</t>
+          <t>2 Corinthians 8:19</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>But we will not boast beyond limits, but will boast only with regard to the area of influence God assigned to us, to reach even to you.</t>
+          <t>And not only that, but he has been e appointed by the churches to travel with us as we carry out this act of f grace that is being ministered by us, g for the glory of the Lord himself and to show our good will.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:14</t>
+          <t>2 Corinthians 8:20</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>For we are not overextending ourselves, as though we did not reach you. For we were the first to come all the way to you with the gospel of Christ.</t>
+          <t>We take this course so that no one should blame us about this generous gift that is being administered by us,</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:15</t>
+          <t>2 Corinthians 8:21</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>We do not boast beyond limit in the labors of others. But our hope is that as your faith increases, our area of influence among you may be greatly enlarged,</t>
+          <t>for h we aim at what is honorable i not only in the Lord s sight but also in the sight of man.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:16</t>
+          <t>2 Corinthians 8:22</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>so that we may preach the gospel in lands beyond you, without boasting of work already done in another's area of influence.</t>
+          <t>And with them we are sending our brother whom we have often tested and found earnest in many matters, but who is now more earnest than ever because of his great confidence in you.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:17</t>
+          <t>2 Corinthians 8:23</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Let the one who boasts, boast in the Lord.</t>
+          <t>As for Titus, he is j my partner and fellow worker for your benefit. And as for our brothers, they are messenger s of the churches, the glory of Christ.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2 Corinthians 10:18</t>
+          <t>2 Corinthians 8:24</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>For it is not the one who commends himself who is approved, but the one whom the Lord commends. Paul and the False Apostles</t>
+          <t>So give proof before the churches of your love and of k our boasting about you to these men. The Collection for Christians in Jerusalem</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:1</t>
+          <t>2 Corinthians 9:1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>I wish you would bear with me in a little foolishness. Do bear with me! 2</t>
+          <t>Now l it is superfluous for me to write to you about m the ministry for the saints,</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:2</t>
+          <t>2 Corinthians 9:2</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>For I feel a divine jealousy for you, since I trothed you to one husband, to pre173 sent you as a pure virgin to Christ. 3</t>
+          <t>for I know your readiness, n of which I boast about you to the people of Macedonia, saying that Achaia has been ready o since last year. And your zeal has stirred up most of them.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:3</t>
+          <t>2 Corinthians 9:3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>But I am afraid that as the serpent deceived Eve by his cunning, your thoughts will be led astray from a sincere and pure devotion to Christ. 4</t>
+          <t>But p I am sendin g the brothers so that our boasting about you may not prove empty in this matter, so that you may be ready, q as I said you would be.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:4</t>
+          <t>2 Corinthians 9:4</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>For if someone comes and proclaims another Jesus than the one we proclaimed, or if you receive a different spirit from the one you received, or if you accept a different gospel from the one you accepted, you put up with it readily enough. 5</t>
+          <t>Otherwise, if some Macedonians r come with me and find that you are not ready, we would be humiliate d to say nothing of yo u for being so confident.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:5</t>
+          <t>2 Corinthians 9:5</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Indeed, I onsider that I m not in the least inferior to these super- apostles. 6</t>
+          <t>So I thought it necessary to urge the brothers to go on ahead to you and arrange in advance for the s gif t you have promised, so that it may be ready t as a willing gift, u not as an exaction. The Cheerful Giver</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:7</t>
+          <t>2 Corinthians 9:6</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Or did I commit a sin in humbling myself so that you might be exalted, because I preached God's gospel to you free of charge 8</t>
+          <t>The point is this: v whoever sows sparingly will also reap sparingly, and whoever sows bountifull y will also reap bountifully.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:8</t>
+          <t>2 Corinthians 9:7</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>I robbed other churches by accepting support from them in order to serve you. 9</t>
+          <t>Each one must give as he has decided in his heart, w not reluctantly or under compulsion, for x God loves a cheerful giver.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:9</t>
+          <t>2 Corinthians 9:8</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>And when I was with you and was in need, I id not burden anyone, for the brothers who came from Macedonia supplied my need. So I refrained and will refrain from burdening you in any way.</t>
+          <t>And y God is able to make all grace abound to you, so that having all sufficienc y in all things at all times, you may abound in every good work.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:11</t>
+          <t>2 Corinthians 9:9</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>And why Because I do not love you God knows I do!</t>
+          <t>As it is written, z He has distributed freely, he has given to the poor; his righteousness endures forever.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:12</t>
+          <t>2 Corinthians 9:10</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>And what I am doing I will continue to do, in order to undermine the claim of those who would like to claim that in their boasted mission they work on the same terms as we do.</t>
+          <t>He who supplies a seed to the sower and bread for food will supply and multiply your seed for sowing and b increase the harvest of your righteousness.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:13</t>
+          <t>2 Corinthians 9:11</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>For such men are false apostles, deceitful workmen, disguising themselves as apostles of Christ.</t>
+          <t>c You will be enriched in every way to be generous in every way, which d through us will produce thanksgiving to God.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:14</t>
+          <t>2 Corinthians 9:12</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>And no wonder, for even Satan disguises himself as an angel of light.</t>
+          <t>For the ministry of this service is not only supplying e the needs of the saints but is also overflowing in many thanksgivings to God.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:15</t>
+          <t>2 Corinthians 9:13</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>So it is no surprise if his servants, also, disguise themselves as servants of righteousness. Their end will correspond to their deeds. Paul's Sufferings as an Apostle</t>
+          <t>By their approval of this service, f the y will glorify God because of your submission that comes from your g confession of the gospel of Christ, and the generosity of your contribution for them and for all others,</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:16</t>
+          <t>2 Corinthians 9:14</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>I repeat, let no one think me foolish. But even if you do, accept me as a fool, so that I too may boast a little.</t>
+          <t>while they long for you and pray for you, because of the surpassing grace of God upon you.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:17</t>
+          <t>2 Corinthians 9:15</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>What I am saying with this boastful confidence, I say not as the Lord woul16 d but as a fool.</t>
+          <t>h Thanks be to God for his inexpressible gift! Paul Defends His Ministry</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:18</t>
+          <t>2 Corinthians 9:16</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Since many boast according to the flesh, I too will boast.</t>
+          <t>i I, Paul, myself entreat you, by the j meekness and gentleness of Chris t I who am humble when face to face with you, but bold toward you when I am away!</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:19</t>
+          <t>2 Corinthians 10:2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>For you gladly bear with fools, being wise yourselves!</t>
+          <t>I beg of you k that when I am pres?ent I may not have to show l boldness with such confidence as I count on showing against some who suspect us of walking according to the flesh.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:20</t>
+          <t>2 Corinthians 10:3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>For you bear it if someone makes slaves of you, or devours you, or takes advantage of you, or puts on airs, or strikes you in the face.</t>
+          <t>For though we walk in the flesh, we are not waging war according to the flesh.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:21</t>
+          <t>2 Corinthians 10:4</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>To my shame, I must say, we were too weak for that! But whatever anyone else dares to boast o f16 I m speaking as a foo16 l16 I lso dare to boast of that.</t>
+          <t>For the m weapons of n our warfare are not of the flesh but have o divine power p to destroy strongholds.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:22</t>
+          <t>2 Corinthians 10:5</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Are they Hebrews So am I. Are they Israelites So am I. Are they offspring of Abraham So am I.</t>
+          <t>We destroy arguments and q every lofty opinion raised against the knowledge of God, and take every thought captive to r obey Christ,</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:23</t>
+          <t>2 Corinthians 10:6</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Are they servants of Christ I m a better on16 e16 I m talking like a madma16 n with far greater labors, far more imprisonments, with countless beatings, and often near death.</t>
+          <t>s being ready to punish every disobedience, t when your obedience is complete.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:24</t>
+          <t>2 Corinthians 10:7</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Five times I received at the hands of the Jews the forty lashes less one.</t>
+          <t>u Look at what is before your eyes. v If anyone is confident that he is Christ s, let him remind himself that just as w he is Christ s, x so also are we.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:25</t>
+          <t>2 Corinthians 10:8</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Three times I was beaten with rods. Once I was stoned. Three times I was shipwrecked; a night and a day I was adrift at sea;</t>
+          <t>For even if I boast a little too much of y our authority, which the Lord gave for building you up and not for destroying you, I will not be ashamed.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:26</t>
+          <t>2 Corinthians 10:9</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>on frequent journeys, in danger from rivers, danger from robbers, danger from my own people, danger from Gentiles, danger in the city, danger in the wilderness, danger at sea, danger from false brothers;</t>
+          <t>I do not want to appear to be frightening you with my letters.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:28</t>
+          <t>2 Corinthians 10:10</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>And, apart from other things, there is the daily pressure on me of my anxiety for all the churches.</t>
+          <t>For they say, His letters are weighty and strong, but z his bodily presence is weak, and a his speech of no account.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2 Corinthians 11:32</t>
+          <t>2 Corinthians 10:11</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>At Damascus, the governor under King Aretas was guarding the city of Damascus in order to seize me,</t>
+          <t>Let such a person understand that what we say by letter when absent, we do when pres?ent.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:1</t>
+          <t>2 Corinthians 10:12</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>I must go on boasting. Though there is nothing to be gained by it, I will go on to visions and revelations of the Lord. 2</t>
+          <t>Not that we dare to classify or b compare ourselves with some of those who c are commending themselves. But when they measure themselves by one another and compare themselves with one another, they are d without understanding.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:2</t>
+          <t>2 Corinthians 10:13</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>I know a man in Christ who fourteen years ago was caught up to the third heave16 n16 whether in the body or out of the body I do not know, God knows. 3</t>
+          <t>But we will not boast e beyond limits, but will f boast only with regard to the area of influence God assigned to us, g to reach even to you.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:3</t>
+          <t>2 Corinthians 10:14</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>And I know that this man was caught up into paradis16 e whether in the body or out of the body I do not know, God know16 s16 4</t>
+          <t>For we are not overextending ourselves, as though we did not reach you. h For we were the first to come all the way to you with the gospel of Christ.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:4</t>
+          <t>2 Corinthians 10:15</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>and he heard things that cannot be told, which man may not utter. 5</t>
+          <t>We do not boast beyond limit in the labors of others. But our hope is that i as your faith increases, our area of influence among you may be j greatly enlarged,</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:5</t>
+          <t>2 Corinthians 10:16</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>On behalf of this man I will boast, but on my own behalf I will not boast, except of my weaknesse16 s16 6</t>
+          <t>so that we may preach the gospel in lands beyond you, without boasting of work already done in another s area of influence.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:6</t>
+          <t>2 Corinthians 10:17</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>though if I should wish to boast, I would not be a fool, for I would be speaking the truth; but I refrain from it, so that no one may think more of me than he sees in me or hears from me. 7</t>
+          <t>Let k the one who boasts, boast in the Lord.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:7</t>
+          <t>2 Corinthians 10:18</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>So to keep me from becoming conceited because of the surpassing greatness of the revelations, a thorn was given me in the flesh, a messenger of Satan to harass me, to keep me from becoming conceited. 8</t>
+          <t>For it is l not the one who commends himself who is approved, but the one m whom the Lord commends. Paul and the False Apostles</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:9</t>
+          <t>2 Corinthians 11:1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>But he said to me, My grace is sufficient for you, for y power is made perfect in weakness. Therefore I will boast all the more gladly of my weaknesses, so that the power of Christ may rest upon me.</t>
+          <t>I wish you would bear with me in a little foolishness. Do bear with me!</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:13</t>
+          <t>2 Corinthians 11:2</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>For in what were you less favored than the rest of the churches, except that I myself did not burden you Forgive me this wrong!</t>
+          <t>For I feel a divine jealousy for you, since n I betrothed you to one husband, o to pre?sent you p as a pure virgin to Christ.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:14</t>
+          <t>2 Corinthians 11:3</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Here for the third time I am ready to come to you. And I will not be a burden, for I seek not what is yours but you. For children are not obligated to save up for their parents, but parents for their children.</t>
+          <t>But I am afraid that q as the serpent deceived Eve by his cunning, your thoughts r will be led astray from a s sincere and t pure devotion to Christ.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:16</t>
+          <t>2 Corinthians 11:4</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>But granting that I myself did not burden you, I was crafty, you say, and got the better of you by deceit.</t>
+          <t>For if someone comes and u proclaims another Jesus than the one we proclaimed, or if you receive a different spirit from the one you received, or if you accept v a different gospel from the one you accepted, you put up with it readily enough.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:17</t>
+          <t>2 Corinthians 11:5</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Did I take advantage of you through any of those whom I sent to you</t>
+          <t>Indeed, I consider that w I am not in the least inferior to these super-apostles.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:19</t>
+          <t>2 Corinthians 11:6</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Have you been thinking all along that we have been defending ourselves to you It is in the sight of God that we have been speaking in Christ, and all for your upbuilding, beloved.</t>
+          <t>x Even if I am unskilled in speaking, y I am not so in knowledge; indeed, in every way z we have made this plain to you in all things.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:20</t>
+          <t>2 Corinthians 11:7</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>For I fear that perhaps when I come I may find you not as I wish, and that you may find me not as you wis16 h that perhaps there may be quarreling, jealousy, anger, hostility, slander, gossip, conceit, and disorder.</t>
+          <t>Or a did I commit a sin in humbling myself so that you might be exalted, because b I preached God s gospel to you free of charge?</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2 Corinthians 12:21</t>
+          <t>2 Corinthians 11:8</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>I r that when I come again my God may humble me before you, and I may have to mourn over many of those who sinned earlier and have not repented of the impurity, sexual immorality, and sensuality that they have practiced. Final Warnings</t>
+          <t>I robbed other churches by accepting support from them in order to serve you.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:3</t>
+          <t>2 Corinthians 11:9</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>since you seek proof that Christ is speaking in me. He is not weak in dealing with you, but is powerful among you. 4</t>
+          <t>And when I was with you and was c in need, d I did not burden anyone, for the brothers who came from Macedonia e supplied my need. So I refrained and will refrain f from burdening you in any way.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:4</t>
+          <t>2 Corinthians 11:10</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>For he was crucified in weakness, but lives by the power of God. For we also are weak in him, but in dealing with you we will live with him by the power of God. 5</t>
+          <t>g As the truth of Christ is in me, this boasting of mine h will not be silenced in the regions of Achaia.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:5</t>
+          <t>2 Corinthians 11:11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Examine yourselves, to see whether you are in the faith. Test yourselves. Or do you not realize this about yourselves, that Jesus Christ is in you unless indeed you fail to meet the test! 6</t>
+          <t>And why? i Because I do not love you? j God knows I do!</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:6</t>
+          <t>2 Corinthians 11:12</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>I hope you will find out that we have not failed the test. 7</t>
+          <t>And what I am doing I will continue to do, k in order to undermine the claim of those who would like to claim that in their boasted mission they work on the same terms as we do.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:7</t>
+          <t>2 Corinthians 11:13</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>But we pray to God that you may not do wron g not that we may appear to have met the test, but that you may do what is right, though we may seem to have failed. 8</t>
+          <t>For such men are l false apostles, m deceitful workmen, n disguising themselves as apostles of Christ.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:8</t>
+          <t>2 Corinthians 11:14</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>For we cannot do anything against the truth, but only for the truth. 9</t>
+          <t>And no wonder, for even Satan disguises himself as o an angel of light.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:9</t>
+          <t>2 Corinthians 11:15</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>For we are glad when we are weak and you are strong. Your restoration is what we pray for.</t>
+          <t>So it is no surprise if his servants, also, disguise themselves as p servants of righteousness. q Their end will correspond to their deeds. Paul s Sufferings as an Apostle</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2 Corinthians 13:10</t>
+          <t>2 Corinthians 11:16</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>For this reason I write these things while I am away from you, that when I come I may not have to be severe in my use of the authority that the Lord has given me for building up and not for tearing down. Final Greetings</t>
+          <t>I repeat, r let no one think me foolish. But even if you do, accept me as a fool, so that I too may boast a little.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
+          <t>2 Corinthians 11:17</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>What I am saying s with this boastful confidence, t I say not as the Lord woul d but as a fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:18</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Since u many boast according to the flesh, I too will boast.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:19</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>For you gladly bear with fools, v being wise yourselves!</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:20</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>For you bear it if someone w makes slaves of you, or x devours you, or takes advantage of you, or puts on airs, or y strikes you in the face.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:21</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>To my shame, I must say, z we were too weak for that! But whatever anyone else dares to boast o f I am speaking as a foo l I also dare to boast of that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:22</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Are they Hebrews? a So am I. Are they Israelites? So am I. Are they offspring of Abraham? So am I.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:23</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Are they b servants of Christ? c I am a better on e I am talking like a madma n with far greater labors, d far more imprisonments, e with countless beatings, and f often near death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:24</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Five times I received at the hands of the Jews the g forty lashes less one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:25</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Three times I was h beaten with rods. i Once I was stoned. Three times I j was shipwrecked; a night and a day I was adrift at sea;</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:26</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>on frequent journeys, in danger from rivers, danger from robbers, k danger from my own people, l danger from Gentiles, m danger in the city, danger in the wilderness, danger at sea, danger from false brothers;</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:27</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>n in toil and hardship, through many a sleepless night, o in hunger and thirst, often without food, in cold and exposure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:28</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>And, apart from other things, there is the daily pressure on me of my anxiety for p all the churches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:29</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>q Who is weak, and I am not weak? Who is made to fall, and I am not indignant?</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:30</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>r If I must boast, I will boast of the things that show my weakness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:31</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>s The God and Father of the Lord Jesus, t he who is blessed forever, u knows that I am not lying.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:32</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>At Damascus, the governor under King Aretas v was guarding the city of Damascus in order to seize me,</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2 Corinthians 11:33</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>w but I was let down in a basket through a window in the wall and escaped his hands. Paul s Visions and His Thorn</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:1</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>I must go on boasting. Though there is nothing to be gained by it, I will go on to visions and x revelations of the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:2</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>I know a man y in Christ who fourteen years ago was z caught up to a the third heaven whether in the body or out of the body I do not know, b God knows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:3</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>And I know that this man was caught up into c paradis e whether in the body or out of the body I do not know, b God know s</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:4</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>and he heard things that cannot be told, which man may not utter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:5</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>On behalf of this man I will boast, but on my own behalf I will not boast, d except of my weaknesse s</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:6</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>though if I should wish to boast, e I would not be a fool, for I would be speaking the truth; but I refrain from it, so that no one may think more of me than he sees in me or hears from me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:7</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>So f to keep me from becoming conceited because of the surpassing greatness of the revelations,</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:8</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>g a thorn was given me in the flesh, h a messenger of Satan to harass me, to keep me from becoming conceited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:9</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>i Three times I pleaded with the Lord about this, that it should leave me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:9</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>But he said to me, j My grace is sufficient for you, for k my power is made perfect in weakness. Therefore I will boast all the more gladly of my weaknesses, so that l the power of Christ may rest upon me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:10</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>m For the sake of Christ, then, n I am content with weaknesses, insults, hardships, persecutions, and calamities. For o when I am weak, then I am strong. Concern for the Corinthian Church</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:11</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>p I have been a fool! You forced me to it, for I ought to have been commended by you. For I was q not at all inferior to these super-apostles, r even though I am nothing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:12</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>s The signs of a true apostle were performed among you t with utmost patience, with signs and wonders and mighty works.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:13</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>For in what were you less favored than the rest of the churches, except that u I myself did not burden you? Forgive me this wrong!</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:14</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Here v for the third time I am ready to come to you. And I will not be a burden, for w I seek not what is yours but you. For x children are not obligated to save up for their parents, but y parents for their children.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:15</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>z I will most gladly spend and be spent for your souls. If a I love you more, am I to be loved less?</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:16</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>But granting that b I myself did not burden you, I was crafty, you say, and got the better of you by deceit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:17</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Did I take advantage of you c through any of those whom I sent to you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:18</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>d I urged Titus to go, and sent e the brother with him. Did Titus take advantage of you? Did we not act in the same spirit? Did we not take the same steps?</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:19</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Have you been thinking all along that we have been defending ourselves to you? It is f in the sight of God that we have been speaking in Christ, and g all for your upbuilding, beloved.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:20</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>For I fear that perhaps h when I come I may find you not as I wish, and that you may find me not as you wish that perhaps there may be quarreling, jealousy, anger, hostility, slander, gossip, conceit, and disorder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:21</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>I fear that when I come again my God may humble me before you, and I may have to mourn over many of those i who sinned earlier and have not repented of the impurity, j sexual immorality, and sensuality that they have practiced. Final Warnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:22</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>k This is the third time I am coming to you. Every charge must be established l by the evidence of two or three witnesses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2 Corinthians 12:23</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>m I warned n those who sinned before and all the others, and I warn them now while absent, as I did when pres?ent on my second visit, that o if I come again I will not spare the m</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:3</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>since you seek proof that Christ p is speaking in me. He is not weak in dealing with you, but q is powerful among you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:4</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>For r he was crucified in weakness, but s lives by the power of God. For t we also are weak in him, but in dealing with you u we will live with him by the power of God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:5</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Examine yourselves, to see whether you are in the faith. v Test yourselves. Or do you not realize this about yourselves, that w Jesus Christ is in you? unless indeed you fail to meet the test!</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:6</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>I hope you will find out that we have not failed the test.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:7</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>But we pray to God that you may not do wron g not that we may appear to have met the test, but that you may do what is right, though we may seem to have failed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:8</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>For we cannot do anything against the truth, but only for the truth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:9</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>For we are glad when x we are weak and you are strong. Your y restoration is what we pray for.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:10</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>For this reason I write these things while I am away from you, that when I come z I may not have to be a severe in my use of b the authority that the Lord has given me for building up and not for tearing down. Final Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
           <t>2 Corinthians 13:11</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Finally, brothers, rejoice. Aim for restoration, comfort one another, agree with one another, live in peace; and the God of love and peace will be with you.</t>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Finally, brothers, rejoice. c Aim for restoration, comfort one another,</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:12</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>d agree with one another, e live in peace; and the God of love and f peace will be with you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:13</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>g Greet one another with a holy kiss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:14</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>h All the saints greet you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2 Corinthians 13:15</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>i The grace of the Lord Jesus Christ and j the love of God and k the fellowship of the Holy Spirit be with you all.</t>
         </is>
       </c>
     </row>
